--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,107 +1,403 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>小数</t>
+    <t>时间（s）</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>字符串</t>
+    <t>密度(g/ml)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,9 +405,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -119,25 +657,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -186,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,26 +803,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -271,23 +838,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,58 +979,1097 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="4" max="4" width="10.7794871794872" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44844</v>
-      </c>
+      <c r="A2" s="2">
+        <v>0.578990321</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>0.964983868</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>1.350977415</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>1.736970963</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>2.12296451</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>2.508958057</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>2.894951605</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>3.280945152</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>3.666938699</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>4.052932246</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>4.438925794</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>4.824919341</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>5.210912888</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>5.596906436</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>5.982899983</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>6.36889353</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>6.754887077</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>7.140880625</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>7.526874172</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>7.912867719</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>8.298861267</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>8.684854814</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>9.070848361</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>9.456841908</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>9.842835456</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>10.228829</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>10.61482255</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>11.0008161</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>11.38680964</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>11.77280319</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.001381298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>12.15879674</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.00560038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>12.54479029</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.012715545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>12.93078383</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.027129358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>13.31677738</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.052716901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>13.70277093</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.090954173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>14.08876448</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.143523296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>14.47475802</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.206775854</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>14.86075157</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.283255241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>15.24674512</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.374077752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>15.63273866</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.473712933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>16.01873221</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.587971603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>16.40472576</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.731566439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>16.79071931</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.908063742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>17.17671285</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.134178393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>17.5627064</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.411713691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>17.94869995</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1.731063939</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>18.3346935</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2.114745221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>18.72068704</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2.533787569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>19.10668059</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.986140025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>19.49267414</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3.435509207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>19.87866769</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3.886549888</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>20.26466123</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4.302694595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>20.65065478</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.683496824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>21.03664833</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4.990811104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>21.42264187</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.221256796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>21.80863542</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5.385982777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>22.19462897</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.494200956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>22.58062252</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5.512940479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>22.96661606</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5.457375857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>23.35260961</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5.304195372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>23.73860316</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5.068218612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>24.12459671</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.715854312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>24.51059025</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4.271005973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>24.8965838</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3.734216534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>25.28257735</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3.178041199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>25.66857089</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2.618098736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>